--- a/MINIMERCADOS ALQUILERES.xlsx
+++ b/MINIMERCADOS ALQUILERES.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\Olivos_Combustibles_SRL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OSCAR\Desktop\Olivos_Combustibles_SRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B995AE-3044-4BC9-A007-F8E3C83E75EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DBD6CE7-9647-4368-909F-81BAA4076F0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -396,70 +395,13 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,10 +431,70 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,11 +818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50510D6E-BBD8-46B4-AEA1-46F74310CAD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,414 +833,400 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="16">
         <v>1800</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28">
+      <c r="G9" s="16"/>
+      <c r="H9" s="8">
         <v>875</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="11">
         <f>C9*H9</f>
         <v>1575000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="17">
         <v>1800</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="32">
+      <c r="G10" s="17"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
         <f>C10*H10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="18">
         <v>1800</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
+      <c r="G11" s="18"/>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
         <f>C11*H11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="16">
         <v>5000</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28">
+      <c r="G15" s="16"/>
+      <c r="H15" s="8">
         <v>1037</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="11">
         <f>C15*H15</f>
         <v>5185000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="17">
         <v>5000</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="32">
+      <c r="G16" s="17"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
         <f>C16*H16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="18">
         <v>5000</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34">
+      <c r="G17" s="18"/>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
         <f>C17*H17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="16">
         <v>400</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28">
+      <c r="G21" s="16"/>
+      <c r="H21" s="8">
         <v>826</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="11">
         <f>C21*H21</f>
         <v>330400</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="17">
         <v>400</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="32">
+      <c r="G22" s="17"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
         <f>C22*H22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="18">
         <v>400</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="33">
-        <v>0</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="G23" s="18"/>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
         <f>C23*H23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="16">
         <v>1000</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28">
+      <c r="G27" s="16"/>
+      <c r="H27" s="8">
         <v>825</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="11">
         <f>C27*H27</f>
         <v>825000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="17">
         <v>1000</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="32">
+      <c r="G28" s="17"/>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
         <f>C28*H28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="18">
         <v>1000</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="33">
-        <v>0</v>
-      </c>
-      <c r="I29" s="34">
+      <c r="G29" s="18"/>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
         <f>C29*H29</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B25:I25"/>
@@ -1251,10 +1236,24 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
